--- a/desafioFinanceiro/DesafioPoupança2reais.xlsx
+++ b/desafioFinanceiro/DesafioPoupança2reais.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -357,7 +357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -479,13 +479,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -599,23 +610,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -965,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -986,15 +1006,15 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="55" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="43" t="s">
@@ -1018,7 +1038,7 @@
       <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="53" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="9">
@@ -1037,7 +1057,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="9">
         <v>2</v>
       </c>
@@ -1055,7 +1075,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="53" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="11">
@@ -1075,7 +1095,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="11">
         <v>4</v>
       </c>
@@ -1093,7 +1113,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="11">
         <v>5</v>
       </c>
@@ -1111,7 +1131,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="11">
         <v>6</v>
       </c>
@@ -1129,7 +1149,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="53" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="13">
@@ -1149,7 +1169,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="13">
         <v>8</v>
       </c>
@@ -1167,7 +1187,7 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="13">
         <v>9</v>
       </c>
@@ -1185,7 +1205,7 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="13">
         <v>10</v>
       </c>
@@ -1203,7 +1223,7 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="53" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="15">
@@ -1223,7 +1243,7 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="15">
         <v>12</v>
       </c>
@@ -1241,7 +1261,7 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="15">
         <v>13</v>
       </c>
@@ -1259,7 +1279,7 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="15">
         <v>14</v>
       </c>
@@ -1277,7 +1297,7 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="53" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="17">
@@ -1297,7 +1317,7 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="17">
         <v>16</v>
       </c>
@@ -1315,7 +1335,7 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="17">
         <v>17</v>
       </c>
@@ -1333,7 +1353,7 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="17">
         <v>18</v>
       </c>
@@ -1351,7 +1371,7 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="53" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="19">
@@ -1371,7 +1391,7 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="54"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="7">
         <v>20</v>
       </c>
@@ -1389,7 +1409,7 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="54"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="7">
         <v>21</v>
       </c>
@@ -1407,7 +1427,7 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="7">
         <v>22</v>
       </c>
@@ -1425,7 +1445,7 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="53" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="22">
@@ -1445,7 +1465,7 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="54"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="24">
         <v>24</v>
       </c>
@@ -1463,7 +1483,7 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="54"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="24">
         <v>25</v>
       </c>
@@ -1481,7 +1501,7 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="54"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="24">
         <v>26</v>
       </c>
@@ -1499,7 +1519,7 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="53" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="26">
@@ -1519,7 +1539,7 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="54"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="26">
         <v>28</v>
       </c>
@@ -1537,7 +1557,7 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="54"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="26">
         <v>29</v>
       </c>
@@ -1555,7 +1575,7 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="54"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="26">
         <v>30</v>
       </c>
@@ -1573,7 +1593,7 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="28">
@@ -1593,7 +1613,7 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="54"/>
+      <c r="A35" s="53"/>
       <c r="B35" s="28">
         <v>32</v>
       </c>
@@ -1611,7 +1631,7 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="54"/>
+      <c r="A36" s="53"/>
       <c r="B36" s="28">
         <v>33</v>
       </c>
@@ -1629,7 +1649,7 @@
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="54"/>
+      <c r="A37" s="53"/>
       <c r="B37" s="28">
         <v>34</v>
       </c>
@@ -1647,7 +1667,7 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="53" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="30">
@@ -1667,7 +1687,7 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="54"/>
+      <c r="A39" s="53"/>
       <c r="B39" s="30">
         <v>36</v>
       </c>
@@ -1685,7 +1705,7 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="54"/>
+      <c r="A40" s="53"/>
       <c r="B40" s="30">
         <v>37</v>
       </c>
@@ -1703,7 +1723,7 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="54"/>
+      <c r="A41" s="53"/>
       <c r="B41" s="30">
         <v>38</v>
       </c>
@@ -1721,7 +1741,7 @@
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="53" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="32">
@@ -1741,7 +1761,7 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="54"/>
+      <c r="A43" s="53"/>
       <c r="B43" s="32">
         <v>40</v>
       </c>
@@ -1759,7 +1779,7 @@
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="54"/>
+      <c r="A44" s="53"/>
       <c r="B44" s="32">
         <v>41</v>
       </c>
@@ -1777,7 +1797,7 @@
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="54"/>
+      <c r="A45" s="53"/>
       <c r="B45" s="32">
         <v>42</v>
       </c>
@@ -1795,7 +1815,7 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="53" t="s">
         <v>15</v>
       </c>
       <c r="B46" s="34">
@@ -1815,7 +1835,7 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="54"/>
+      <c r="A47" s="53"/>
       <c r="B47" s="34">
         <v>44</v>
       </c>
@@ -1833,7 +1853,7 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="54"/>
+      <c r="A48" s="53"/>
       <c r="B48" s="34">
         <v>45</v>
       </c>
@@ -1851,7 +1871,7 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="54"/>
+      <c r="A49" s="53"/>
       <c r="B49" s="34">
         <v>46</v>
       </c>
@@ -1869,7 +1889,7 @@
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="54" t="s">
+      <c r="A50" s="53" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="36">
@@ -1889,7 +1909,7 @@
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="54"/>
+      <c r="A51" s="53"/>
       <c r="B51" s="36">
         <v>48</v>
       </c>
@@ -1907,7 +1927,7 @@
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="54"/>
+      <c r="A52" s="53"/>
       <c r="B52" s="36">
         <v>49</v>
       </c>
@@ -1925,7 +1945,7 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="54"/>
+      <c r="A53" s="53"/>
       <c r="B53" s="36">
         <v>50</v>
       </c>
@@ -1943,7 +1963,7 @@
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="54" t="s">
+      <c r="A54" s="53" t="s">
         <v>4</v>
       </c>
       <c r="B54" s="38">
@@ -1963,7 +1983,7 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="54"/>
+      <c r="A55" s="53"/>
       <c r="B55" s="41">
         <v>52</v>
       </c>
@@ -1987,29 +2007,29 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
-      <c r="B57" s="53" t="s">
+      <c r="B57" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
     </row>
     <row r="58" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="45">
         <v>1</v>
       </c>
-      <c r="B58" s="58" t="s">
+      <c r="B58" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="58"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
     </row>
     <row r="59" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="46"/>
@@ -2025,15 +2045,15 @@
       <c r="A60" s="45">
         <v>2</v>
       </c>
-      <c r="B60" s="58" t="s">
+      <c r="B60" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="58"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="56"/>
     </row>
     <row r="61" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="49"/>
@@ -2049,15 +2069,15 @@
       <c r="A62" s="45">
         <v>3</v>
       </c>
-      <c r="B62" s="58" t="s">
+      <c r="B62" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="58"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="58"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="56"/>
     </row>
     <row r="63" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="52"/>
@@ -2069,17 +2089,15 @@
       <c r="G63" s="48"/>
       <c r="H63" s="48"/>
     </row>
-    <row r="64" spans="1:8" ht="46.2" x14ac:dyDescent="0.3">
-      <c r="A64" s="45">
-        <v>4</v>
-      </c>
+    <row r="64" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="45"/>
       <c r="B64" s="58"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="57"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
@@ -2232,7 +2250,11 @@
       <c r="B111" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="20">
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B62:H62"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="A42:A45"/>
@@ -2249,11 +2271,6 @@
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B64:H64"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/desafioFinanceiro/DesafioPoupança2reais.xlsx
+++ b/desafioFinanceiro/DesafioPoupança2reais.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Semana</t>
   </si>
@@ -191,6 +191,9 @@
       </rPr>
       <t xml:space="preserve"> O desafio vai ficando a cada semana mais intenso,(valor aumenta e muito!!), observe os meses que estarão por vir e prepare-se para eles antes, isso sevirá como motivação para procurar outras formas de renda ou até mesmo como forma de economizar e cumprir o desafio.</t>
     </r>
+  </si>
+  <si>
+    <t>Letícia</t>
   </si>
 </sst>
 </file>
@@ -496,7 +499,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -610,31 +613,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -985,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:H2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1006,9 +1012,9 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="60" t="s">
         <v>3</v>
       </c>
@@ -1033,12 +1039,14 @@
         <v>18</v>
       </c>
       <c r="G3" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="9">
@@ -1057,7 +1065,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="9">
         <v>2</v>
       </c>
@@ -1075,7 +1083,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="59" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="11">
@@ -1095,7 +1103,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="11">
         <v>4</v>
       </c>
@@ -1113,7 +1121,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="11">
         <v>5</v>
       </c>
@@ -1131,7 +1139,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="11">
         <v>6</v>
       </c>
@@ -1149,7 +1157,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="13">
@@ -1169,7 +1177,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="13">
         <v>8</v>
       </c>
@@ -1187,7 +1195,7 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="13">
         <v>9</v>
       </c>
@@ -1205,7 +1213,7 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="13">
         <v>10</v>
       </c>
@@ -1223,7 +1231,7 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="59" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="15">
@@ -1243,7 +1251,7 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="15">
         <v>12</v>
       </c>
@@ -1261,7 +1269,7 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="15">
         <v>13</v>
       </c>
@@ -1279,7 +1287,7 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="15">
         <v>14</v>
       </c>
@@ -1297,7 +1305,7 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="59" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="17">
@@ -1317,7 +1325,7 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="53"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="17">
         <v>16</v>
       </c>
@@ -1335,7 +1343,7 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="53"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="17">
         <v>17</v>
       </c>
@@ -1353,7 +1361,7 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="53"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="17">
         <v>18</v>
       </c>
@@ -1371,7 +1379,7 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="59" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="19">
@@ -1391,7 +1399,7 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="7">
         <v>20</v>
       </c>
@@ -1409,7 +1417,7 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="53"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="7">
         <v>21</v>
       </c>
@@ -1427,7 +1435,7 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="53"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="7">
         <v>22</v>
       </c>
@@ -1445,7 +1453,7 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="59" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="22">
@@ -1465,7 +1473,7 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="53"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="24">
         <v>24</v>
       </c>
@@ -1483,7 +1491,7 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="53"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="24">
         <v>25</v>
       </c>
@@ -1501,7 +1509,7 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="24">
         <v>26</v>
       </c>
@@ -1519,7 +1527,7 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="59" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="26">
@@ -1539,7 +1547,7 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="53"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="26">
         <v>28</v>
       </c>
@@ -1557,7 +1565,7 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="53"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="26">
         <v>29</v>
       </c>
@@ -1575,7 +1583,7 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="53"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="26">
         <v>30</v>
       </c>
@@ -1593,7 +1601,7 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="59" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="28">
@@ -1613,7 +1621,7 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="53"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="28">
         <v>32</v>
       </c>
@@ -1631,7 +1639,7 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="53"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="28">
         <v>33</v>
       </c>
@@ -1649,7 +1657,7 @@
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="53"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="28">
         <v>34</v>
       </c>
@@ -1667,7 +1675,7 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="59" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="30">
@@ -1687,7 +1695,7 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="53"/>
+      <c r="A39" s="59"/>
       <c r="B39" s="30">
         <v>36</v>
       </c>
@@ -1705,7 +1713,7 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="53"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="30">
         <v>37</v>
       </c>
@@ -1723,7 +1731,7 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="53"/>
+      <c r="A41" s="59"/>
       <c r="B41" s="30">
         <v>38</v>
       </c>
@@ -1741,7 +1749,7 @@
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="59" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="32">
@@ -1761,7 +1769,7 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="53"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="32">
         <v>40</v>
       </c>
@@ -1779,7 +1787,7 @@
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="53"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="32">
         <v>41</v>
       </c>
@@ -1797,7 +1805,7 @@
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="53"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="32">
         <v>42</v>
       </c>
@@ -1815,7 +1823,7 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="53" t="s">
+      <c r="A46" s="59" t="s">
         <v>15</v>
       </c>
       <c r="B46" s="34">
@@ -1835,7 +1843,7 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="53"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="34">
         <v>44</v>
       </c>
@@ -1853,7 +1861,7 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="53"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="34">
         <v>45</v>
       </c>
@@ -1871,7 +1879,7 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="53"/>
+      <c r="A49" s="59"/>
       <c r="B49" s="34">
         <v>46</v>
       </c>
@@ -1889,7 +1897,7 @@
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="36">
@@ -1909,7 +1917,7 @@
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="53"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="36">
         <v>48</v>
       </c>
@@ -1927,7 +1935,7 @@
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="53"/>
+      <c r="A52" s="59"/>
       <c r="B52" s="36">
         <v>49</v>
       </c>
@@ -1945,7 +1953,7 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="53"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="36">
         <v>50</v>
       </c>
@@ -1963,7 +1971,7 @@
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="53" t="s">
+      <c r="A54" s="59" t="s">
         <v>4</v>
       </c>
       <c r="B54" s="38">
@@ -1983,7 +1991,7 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="53"/>
+      <c r="A55" s="59"/>
       <c r="B55" s="41">
         <v>52</v>
       </c>
@@ -2007,29 +2015,29 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
-      <c r="B57" s="55" t="s">
+      <c r="B57" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
     </row>
     <row r="58" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="45">
         <v>1</v>
       </c>
-      <c r="B58" s="56" t="s">
+      <c r="B58" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
     </row>
     <row r="59" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="46"/>
@@ -2045,15 +2053,15 @@
       <c r="A60" s="45">
         <v>2</v>
       </c>
-      <c r="B60" s="56" t="s">
+      <c r="B60" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
-      <c r="G60" s="56"/>
-      <c r="H60" s="56"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
     </row>
     <row r="61" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="49"/>
@@ -2069,15 +2077,15 @@
       <c r="A62" s="45">
         <v>3</v>
       </c>
-      <c r="B62" s="56" t="s">
+      <c r="B62" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="56"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="58"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="58"/>
     </row>
     <row r="63" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="52"/>
@@ -2091,13 +2099,13 @@
     </row>
     <row r="64" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="45"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="59"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="57"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="54"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
@@ -2251,11 +2259,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="A54:A55"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
@@ -2271,6 +2274,11 @@
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/desafioFinanceiro/DesafioPoupança2reais.xlsx
+++ b/desafioFinanceiro/DesafioPoupança2reais.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Semana</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>Letícia</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -499,20 +502,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -625,22 +618,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -991,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1012,1009 +1014,1013 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="60" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="6">
         <f>C4</f>
         <v>2</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="E4" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="9">
+      <c r="A5" s="55"/>
+      <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="6">
         <f>$C$4*B5</f>
         <v>4</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="6">
         <f>C5+D4</f>
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="8">
         <f t="shared" ref="C6:C55" si="0">$C$4*B6</f>
         <v>6</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="8">
         <f t="shared" ref="D6:D55" si="1">C6+D5</f>
         <v>12</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
-      <c r="B7" s="11">
+      <c r="A7" s="55"/>
+      <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="8">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
-      <c r="B8" s="11">
+      <c r="A8" s="55"/>
+      <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="8">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
-      <c r="B9" s="11">
+      <c r="A9" s="55"/>
+      <c r="B9" s="7">
         <v>6</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="8">
         <f>$C$4*B9</f>
         <v>12</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="8">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="9">
         <v>7</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="10">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="10">
         <f>C10+D9</f>
         <v>56</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="13">
+      <c r="A11" s="55"/>
+      <c r="B11" s="9">
         <v>8</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="10">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="10">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="59"/>
-      <c r="B12" s="13">
+      <c r="A12" s="55"/>
+      <c r="B12" s="9">
         <v>9</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="10">
         <f>C12+D11</f>
         <v>90</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="59"/>
-      <c r="B13" s="13">
+      <c r="A13" s="55"/>
+      <c r="B13" s="9">
         <v>10</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="10">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="11">
         <v>11</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="12">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="12">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
-      <c r="B15" s="15">
+      <c r="A15" s="55"/>
+      <c r="B15" s="11">
         <v>12</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="12">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="12">
         <f t="shared" si="1"/>
         <v>156</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
-      <c r="B16" s="15">
+      <c r="A16" s="55"/>
+      <c r="B16" s="11">
         <v>13</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="12">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="12">
         <f t="shared" si="1"/>
         <v>182</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="59"/>
-      <c r="B17" s="15">
+      <c r="A17" s="55"/>
+      <c r="B17" s="11">
         <v>14</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="12">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="12">
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="13">
         <v>15</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="14">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="14">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
-      <c r="B19" s="17">
+      <c r="A19" s="55"/>
+      <c r="B19" s="13">
         <v>16</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="14">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="14">
         <f t="shared" si="1"/>
         <v>272</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="59"/>
-      <c r="B20" s="17">
+      <c r="A20" s="55"/>
+      <c r="B20" s="13">
         <v>17</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="14">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="14">
         <f t="shared" si="1"/>
         <v>306</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="59"/>
-      <c r="B21" s="17">
+      <c r="A21" s="55"/>
+      <c r="B21" s="13">
         <v>18</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="14">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="14">
         <f t="shared" si="1"/>
         <v>342</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="15">
         <v>19</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="16">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="16">
         <f t="shared" si="1"/>
         <v>380</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="59"/>
-      <c r="B23" s="7">
+      <c r="A23" s="55"/>
+      <c r="B23" s="3">
         <v>20</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="17">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="17">
         <f t="shared" si="1"/>
         <v>420</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
-      <c r="B24" s="7">
+      <c r="A24" s="55"/>
+      <c r="B24" s="3">
         <v>21</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="17">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="17">
         <f t="shared" si="1"/>
         <v>462</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
-      <c r="B25" s="7">
+      <c r="A25" s="55"/>
+      <c r="B25" s="3">
         <v>22</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="17">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="17">
         <f t="shared" si="1"/>
         <v>506</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="18">
         <v>23</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="19">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="19">
         <f t="shared" si="1"/>
         <v>552</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="59"/>
-      <c r="B27" s="24">
+      <c r="A27" s="55"/>
+      <c r="B27" s="20">
         <v>24</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="21">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="21">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="59"/>
-      <c r="B28" s="24">
+      <c r="A28" s="55"/>
+      <c r="B28" s="20">
         <v>25</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="21">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="21">
         <f t="shared" si="1"/>
         <v>650</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
-      <c r="B29" s="24">
+      <c r="A29" s="55"/>
+      <c r="B29" s="20">
         <v>26</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="21">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="21">
         <f t="shared" si="1"/>
         <v>702</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="22">
         <v>27</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="23">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="23">
         <f t="shared" si="1"/>
         <v>756</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="59"/>
-      <c r="B31" s="26">
+      <c r="A31" s="55"/>
+      <c r="B31" s="22">
         <v>28</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C31" s="23">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="23">
         <f t="shared" si="1"/>
         <v>812</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="59"/>
-      <c r="B32" s="26">
+      <c r="A32" s="55"/>
+      <c r="B32" s="22">
         <v>29</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="23">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="23">
         <f t="shared" si="1"/>
         <v>870</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="59"/>
-      <c r="B33" s="26">
+      <c r="A33" s="55"/>
+      <c r="B33" s="22">
         <v>30</v>
       </c>
-      <c r="C33" s="27">
+      <c r="C33" s="23">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="23">
         <f t="shared" si="1"/>
         <v>930</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="24">
         <v>31</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="25">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="25">
         <f t="shared" si="1"/>
         <v>992</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
-      <c r="B35" s="28">
+      <c r="A35" s="55"/>
+      <c r="B35" s="24">
         <v>32</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="25">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="D35" s="29">
+      <c r="D35" s="25">
         <f t="shared" si="1"/>
         <v>1056</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="59"/>
-      <c r="B36" s="28">
+      <c r="A36" s="55"/>
+      <c r="B36" s="24">
         <v>33</v>
       </c>
-      <c r="C36" s="29">
+      <c r="C36" s="25">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="D36" s="29">
+      <c r="D36" s="25">
         <f t="shared" si="1"/>
         <v>1122</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="59"/>
-      <c r="B37" s="28">
+      <c r="A37" s="55"/>
+      <c r="B37" s="24">
         <v>34</v>
       </c>
-      <c r="C37" s="29">
+      <c r="C37" s="25">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="D37" s="29">
+      <c r="D37" s="25">
         <f t="shared" si="1"/>
         <v>1190</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="30">
+      <c r="B38" s="26">
         <v>35</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="27">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="D38" s="31">
+      <c r="D38" s="27">
         <f t="shared" si="1"/>
         <v>1260</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="59"/>
-      <c r="B39" s="30">
+      <c r="A39" s="55"/>
+      <c r="B39" s="26">
         <v>36</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="27">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="D39" s="31">
+      <c r="D39" s="27">
         <f t="shared" si="1"/>
         <v>1332</v>
       </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="59"/>
-      <c r="B40" s="30">
+      <c r="A40" s="55"/>
+      <c r="B40" s="26">
         <v>37</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="27">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="D40" s="31">
+      <c r="D40" s="27">
         <f t="shared" si="1"/>
         <v>1406</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="59"/>
-      <c r="B41" s="30">
+      <c r="A41" s="55"/>
+      <c r="B41" s="26">
         <v>38</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="27">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="D41" s="31">
+      <c r="D41" s="27">
         <f t="shared" si="1"/>
         <v>1482</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="59" t="s">
+      <c r="A42" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="32">
+      <c r="B42" s="28">
         <v>39</v>
       </c>
-      <c r="C42" s="33">
+      <c r="C42" s="29">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="D42" s="33">
+      <c r="D42" s="29">
         <f t="shared" si="1"/>
         <v>1560</v>
       </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="59"/>
-      <c r="B43" s="32">
+      <c r="A43" s="55"/>
+      <c r="B43" s="28">
         <v>40</v>
       </c>
-      <c r="C43" s="33">
+      <c r="C43" s="29">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D43" s="33">
+      <c r="D43" s="29">
         <f t="shared" si="1"/>
         <v>1640</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="59"/>
-      <c r="B44" s="32">
+      <c r="A44" s="55"/>
+      <c r="B44" s="28">
         <v>41</v>
       </c>
-      <c r="C44" s="33">
+      <c r="C44" s="29">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="D44" s="33">
+      <c r="D44" s="29">
         <f t="shared" si="1"/>
         <v>1722</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="59"/>
-      <c r="B45" s="32">
+      <c r="A45" s="55"/>
+      <c r="B45" s="28">
         <v>42</v>
       </c>
-      <c r="C45" s="33">
+      <c r="C45" s="29">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="D45" s="33">
+      <c r="D45" s="29">
         <f t="shared" si="1"/>
         <v>1806</v>
       </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="59" t="s">
+      <c r="A46" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="34">
+      <c r="B46" s="30">
         <v>43</v>
       </c>
-      <c r="C46" s="35">
+      <c r="C46" s="31">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="D46" s="35">
+      <c r="D46" s="31">
         <f t="shared" si="1"/>
         <v>1892</v>
       </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="59"/>
-      <c r="B47" s="34">
+      <c r="A47" s="55"/>
+      <c r="B47" s="30">
         <v>44</v>
       </c>
-      <c r="C47" s="35">
+      <c r="C47" s="31">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="D47" s="35">
+      <c r="D47" s="31">
         <f t="shared" si="1"/>
         <v>1980</v>
       </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="59"/>
-      <c r="B48" s="34">
+      <c r="A48" s="55"/>
+      <c r="B48" s="30">
         <v>45</v>
       </c>
-      <c r="C48" s="35">
+      <c r="C48" s="31">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="D48" s="35">
+      <c r="D48" s="31">
         <f t="shared" si="1"/>
         <v>2070</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="59"/>
-      <c r="B49" s="34">
+      <c r="A49" s="55"/>
+      <c r="B49" s="30">
         <v>46</v>
       </c>
-      <c r="C49" s="35">
+      <c r="C49" s="31">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="D49" s="35">
+      <c r="D49" s="31">
         <f t="shared" si="1"/>
         <v>2162</v>
       </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="59" t="s">
+      <c r="A50" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="36">
+      <c r="B50" s="32">
         <v>47</v>
       </c>
-      <c r="C50" s="37">
+      <c r="C50" s="33">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="D50" s="37">
+      <c r="D50" s="33">
         <f t="shared" si="1"/>
         <v>2256</v>
       </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="59"/>
-      <c r="B51" s="36">
+      <c r="A51" s="55"/>
+      <c r="B51" s="32">
         <v>48</v>
       </c>
-      <c r="C51" s="37">
+      <c r="C51" s="33">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="D51" s="37">
+      <c r="D51" s="33">
         <f t="shared" si="1"/>
         <v>2352</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="61"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="59"/>
-      <c r="B52" s="36">
+      <c r="A52" s="55"/>
+      <c r="B52" s="32">
         <v>49</v>
       </c>
-      <c r="C52" s="37">
+      <c r="C52" s="33">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="D52" s="37">
+      <c r="D52" s="33">
         <f t="shared" si="1"/>
         <v>2450</v>
       </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="59"/>
-      <c r="B53" s="36">
+      <c r="A53" s="55"/>
+      <c r="B53" s="32">
         <v>50</v>
       </c>
-      <c r="C53" s="37">
+      <c r="C53" s="33">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D53" s="37">
+      <c r="D53" s="33">
         <f t="shared" si="1"/>
         <v>2550</v>
       </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="59" t="s">
+      <c r="A54" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="38">
+      <c r="B54" s="34">
         <v>51</v>
       </c>
-      <c r="C54" s="39">
+      <c r="C54" s="35">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="D54" s="40">
+      <c r="D54" s="36">
         <f t="shared" si="1"/>
         <v>2652</v>
       </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="61"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="59"/>
-      <c r="B55" s="41">
+      <c r="A55" s="55"/>
+      <c r="B55" s="37">
         <v>52</v>
       </c>
-      <c r="C55" s="40">
+      <c r="C55" s="36">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="D55" s="42">
+      <c r="D55" s="38">
         <f t="shared" si="1"/>
         <v>2756</v>
       </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
+      <c r="A56" s="4"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
+      <c r="A57" s="4"/>
       <c r="B57" s="57" t="s">
         <v>19</v>
       </c>
@@ -2026,7 +2032,7 @@
       <c r="H57" s="57"/>
     </row>
     <row r="58" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="45">
+      <c r="A58" s="41">
         <v>1</v>
       </c>
       <c r="B58" s="58" t="s">
@@ -2040,17 +2046,17 @@
       <c r="H58" s="58"/>
     </row>
     <row r="59" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="46"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
     </row>
     <row r="60" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="45">
+      <c r="A60" s="41">
         <v>2</v>
       </c>
       <c r="B60" s="58" t="s">
@@ -2064,17 +2070,17 @@
       <c r="H60" s="58"/>
     </row>
     <row r="61" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="49"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
+      <c r="A61" s="45"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
     </row>
     <row r="62" spans="1:8" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="45">
+      <c r="A62" s="41">
         <v>3</v>
       </c>
       <c r="B62" s="58" t="s">
@@ -2088,59 +2094,59 @@
       <c r="H62" s="58"/>
     </row>
     <row r="63" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="52"/>
-      <c r="B63" s="48"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
+      <c r="A63" s="48"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
     </row>
     <row r="64" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="45"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="56"/>
-      <c r="H64" s="54"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="50"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="8"/>
+      <c r="A65" s="4"/>
       <c r="B65" s="2"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="8"/>
+      <c r="A66" s="4"/>
       <c r="B66" s="2"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="8"/>
+      <c r="A67" s="4"/>
       <c r="B67" s="2"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="8"/>
+      <c r="A68" s="4"/>
       <c r="B68" s="2"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="8"/>
+      <c r="A69" s="4"/>
       <c r="B69" s="2"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="8"/>
+      <c r="A70" s="4"/>
       <c r="B70" s="2"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="8"/>
+      <c r="A71" s="4"/>
       <c r="B71" s="2"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="8"/>
+      <c r="A72" s="4"/>
       <c r="B72" s="2"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="8"/>
+      <c r="A73" s="4"/>
       <c r="B73" s="2"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -2259,6 +2265,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="A54:A55"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
@@ -2274,11 +2285,6 @@
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/desafioFinanceiro/DesafioPoupança2reais.xlsx
+++ b/desafioFinanceiro/DesafioPoupança2reais.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Semana</t>
   </si>
@@ -618,31 +618,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -994,7 +994,7 @@
   <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1014,15 +1014,15 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="53" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="39" t="s">
@@ -1048,7 +1048,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="58" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5">
@@ -1061,17 +1061,21 @@
         <f>C4</f>
         <v>2</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60" t="s">
+      <c r="F4" s="53" t="s">
         <v>24</v>
       </c>
+      <c r="G4" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="55"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -1083,13 +1087,13 @@
         <f>C5+D4</f>
         <v>6</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="58" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="7">
@@ -1103,13 +1107,13 @@
         <f t="shared" ref="D6:D55" si="1">C6+D5</f>
         <v>12</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="7">
         <v>4</v>
       </c>
@@ -1121,13 +1125,13 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="55"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="7">
         <v>5</v>
       </c>
@@ -1139,13 +1143,13 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="55"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="7">
         <v>6</v>
       </c>
@@ -1157,13 +1161,13 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="9">
@@ -1177,13 +1181,13 @@
         <f>C10+D9</f>
         <v>56</v>
       </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="9">
         <v>8</v>
       </c>
@@ -1195,13 +1199,13 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="9">
         <v>9</v>
       </c>
@@ -1213,13 +1217,13 @@
         <f>C12+D11</f>
         <v>90</v>
       </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="55"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="9">
         <v>10</v>
       </c>
@@ -1231,13 +1235,13 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="58" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="11">
@@ -1251,13 +1255,13 @@
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="55"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="11">
         <v>12</v>
       </c>
@@ -1269,13 +1273,13 @@
         <f t="shared" si="1"/>
         <v>156</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="11">
         <v>13</v>
       </c>
@@ -1287,13 +1291,13 @@
         <f t="shared" si="1"/>
         <v>182</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="11">
         <v>14</v>
       </c>
@@ -1305,13 +1309,13 @@
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="58" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="13">
@@ -1325,13 +1329,13 @@
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="55"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="13">
         <v>16</v>
       </c>
@@ -1343,13 +1347,13 @@
         <f t="shared" si="1"/>
         <v>272</v>
       </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="55"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="13">
         <v>17</v>
       </c>
@@ -1361,13 +1365,13 @@
         <f t="shared" si="1"/>
         <v>306</v>
       </c>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="55"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="13">
         <v>18</v>
       </c>
@@ -1379,13 +1383,13 @@
         <f t="shared" si="1"/>
         <v>342</v>
       </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="58" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="15">
@@ -1399,13 +1403,13 @@
         <f t="shared" si="1"/>
         <v>380</v>
       </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="55"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="3">
         <v>20</v>
       </c>
@@ -1417,13 +1421,13 @@
         <f t="shared" si="1"/>
         <v>420</v>
       </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="55"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="3">
         <v>21</v>
       </c>
@@ -1435,13 +1439,13 @@
         <f t="shared" si="1"/>
         <v>462</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="55"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="3">
         <v>22</v>
       </c>
@@ -1453,13 +1457,13 @@
         <f t="shared" si="1"/>
         <v>506</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="58" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="18">
@@ -1473,13 +1477,13 @@
         <f t="shared" si="1"/>
         <v>552</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="55"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="20">
         <v>24</v>
       </c>
@@ -1491,13 +1495,13 @@
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="55"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="20">
         <v>25</v>
       </c>
@@ -1509,13 +1513,13 @@
         <f t="shared" si="1"/>
         <v>650</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="55"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="20">
         <v>26</v>
       </c>
@@ -1527,13 +1531,13 @@
         <f t="shared" si="1"/>
         <v>702</v>
       </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="58" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="22">
@@ -1547,13 +1551,13 @@
         <f t="shared" si="1"/>
         <v>756</v>
       </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="55"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="22">
         <v>28</v>
       </c>
@@ -1565,13 +1569,13 @@
         <f t="shared" si="1"/>
         <v>812</v>
       </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="55"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="22">
         <v>29</v>
       </c>
@@ -1583,13 +1587,13 @@
         <f t="shared" si="1"/>
         <v>870</v>
       </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="55"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="22">
         <v>30</v>
       </c>
@@ -1601,13 +1605,13 @@
         <f t="shared" si="1"/>
         <v>930</v>
       </c>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="24">
@@ -1621,13 +1625,13 @@
         <f t="shared" si="1"/>
         <v>992</v>
       </c>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="55"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="24">
         <v>32</v>
       </c>
@@ -1639,13 +1643,13 @@
         <f t="shared" si="1"/>
         <v>1056</v>
       </c>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="55"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="24">
         <v>33</v>
       </c>
@@ -1657,13 +1661,13 @@
         <f t="shared" si="1"/>
         <v>1122</v>
       </c>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="55"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="24">
         <v>34</v>
       </c>
@@ -1675,13 +1679,13 @@
         <f t="shared" si="1"/>
         <v>1190</v>
       </c>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="55" t="s">
+      <c r="A38" s="58" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="26">
@@ -1695,13 +1699,13 @@
         <f t="shared" si="1"/>
         <v>1260</v>
       </c>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="55"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="26">
         <v>36</v>
       </c>
@@ -1713,13 +1717,13 @@
         <f t="shared" si="1"/>
         <v>1332</v>
       </c>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="55"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="26">
         <v>37</v>
       </c>
@@ -1731,13 +1735,13 @@
         <f t="shared" si="1"/>
         <v>1406</v>
       </c>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="55"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="26">
         <v>38</v>
       </c>
@@ -1749,13 +1753,13 @@
         <f t="shared" si="1"/>
         <v>1482</v>
       </c>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="58" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="28">
@@ -1769,13 +1773,13 @@
         <f t="shared" si="1"/>
         <v>1560</v>
       </c>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="55"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="28">
         <v>40</v>
       </c>
@@ -1787,13 +1791,13 @@
         <f t="shared" si="1"/>
         <v>1640</v>
       </c>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="55"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="28">
         <v>41</v>
       </c>
@@ -1805,13 +1809,13 @@
         <f t="shared" si="1"/>
         <v>1722</v>
       </c>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="55"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="28">
         <v>42</v>
       </c>
@@ -1823,13 +1827,13 @@
         <f t="shared" si="1"/>
         <v>1806</v>
       </c>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="58" t="s">
         <v>15</v>
       </c>
       <c r="B46" s="30">
@@ -1843,13 +1847,13 @@
         <f t="shared" si="1"/>
         <v>1892</v>
       </c>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="55"/>
+      <c r="A47" s="58"/>
       <c r="B47" s="30">
         <v>44</v>
       </c>
@@ -1861,13 +1865,13 @@
         <f t="shared" si="1"/>
         <v>1980</v>
       </c>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="55"/>
+      <c r="A48" s="58"/>
       <c r="B48" s="30">
         <v>45</v>
       </c>
@@ -1879,13 +1883,13 @@
         <f t="shared" si="1"/>
         <v>2070</v>
       </c>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="55"/>
+      <c r="A49" s="58"/>
       <c r="B49" s="30">
         <v>46</v>
       </c>
@@ -1897,13 +1901,13 @@
         <f t="shared" si="1"/>
         <v>2162</v>
       </c>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="58" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="32">
@@ -1917,13 +1921,13 @@
         <f t="shared" si="1"/>
         <v>2256</v>
       </c>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="55"/>
+      <c r="A51" s="58"/>
       <c r="B51" s="32">
         <v>48</v>
       </c>
@@ -1935,13 +1939,13 @@
         <f t="shared" si="1"/>
         <v>2352</v>
       </c>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="55"/>
+      <c r="A52" s="58"/>
       <c r="B52" s="32">
         <v>49</v>
       </c>
@@ -1953,13 +1957,13 @@
         <f t="shared" si="1"/>
         <v>2450</v>
       </c>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="61"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="55"/>
+      <c r="A53" s="58"/>
       <c r="B53" s="32">
         <v>50</v>
       </c>
@@ -1971,13 +1975,13 @@
         <f t="shared" si="1"/>
         <v>2550</v>
       </c>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="55" t="s">
+      <c r="A54" s="58" t="s">
         <v>4</v>
       </c>
       <c r="B54" s="34">
@@ -1991,13 +1995,13 @@
         <f t="shared" si="1"/>
         <v>2652</v>
       </c>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="61"/>
-      <c r="H54" s="61"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="55"/>
+      <c r="A55" s="58"/>
       <c r="B55" s="37">
         <v>52</v>
       </c>
@@ -2009,10 +2013,10 @@
         <f t="shared" si="1"/>
         <v>2756</v>
       </c>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
@@ -2021,29 +2025,29 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
-      <c r="B57" s="57" t="s">
+      <c r="B57" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="57"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
     </row>
     <row r="58" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="41">
         <v>1</v>
       </c>
-      <c r="B58" s="58" t="s">
+      <c r="B58" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="58"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
     </row>
     <row r="59" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="42"/>
@@ -2059,15 +2063,15 @@
       <c r="A60" s="41">
         <v>2</v>
       </c>
-      <c r="B60" s="58" t="s">
+      <c r="B60" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="58"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
     </row>
     <row r="61" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="45"/>
@@ -2083,15 +2087,15 @@
       <c r="A62" s="41">
         <v>3</v>
       </c>
-      <c r="B62" s="58" t="s">
+      <c r="B62" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="58"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="58"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
     </row>
     <row r="63" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="48"/>
@@ -2265,11 +2269,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="A54:A55"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
@@ -2285,6 +2284,11 @@
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/desafioFinanceiro/DesafioPoupança2reais.xlsx
+++ b/desafioFinanceiro/DesafioPoupança2reais.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Semana</t>
   </si>
@@ -994,7 +994,7 @@
   <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1087,10 +1087,16 @@
         <f>C5+D4</f>
         <v>6</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="E5" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>24</v>
+      </c>
       <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="H5" s="54" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="58" t="s">
@@ -1107,10 +1113,14 @@
         <f t="shared" ref="D6:D55" si="1">C6+D5</f>
         <v>12</v>
       </c>
-      <c r="E6" s="53"/>
+      <c r="E6" s="53" t="s">
+        <v>24</v>
+      </c>
       <c r="F6" s="53"/>
       <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
+      <c r="H6" s="54" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="58"/>

--- a/desafioFinanceiro/DesafioPoupança2reais.xlsx
+++ b/desafioFinanceiro/DesafioPoupança2reais.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Semana</t>
   </si>
@@ -994,7 +994,7 @@
   <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1117,7 +1117,9 @@
         <v>24</v>
       </c>
       <c r="F6" s="53"/>
-      <c r="G6" s="54"/>
+      <c r="G6" s="54" t="s">
+        <v>24</v>
+      </c>
       <c r="H6" s="54" t="s">
         <v>24</v>
       </c>
@@ -1135,7 +1137,9 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E7" s="53"/>
+      <c r="E7" s="53" t="s">
+        <v>24</v>
+      </c>
       <c r="F7" s="53"/>
       <c r="G7" s="54"/>
       <c r="H7" s="54"/>

--- a/desafioFinanceiro/DesafioPoupança2reais.xlsx
+++ b/desafioFinanceiro/DesafioPoupança2reais.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>Semana</t>
   </si>
@@ -627,23 +627,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -994,7 +994,7 @@
   <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1014,15 +1014,15 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="59" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="39" t="s">
@@ -1142,7 +1142,9 @@
       </c>
       <c r="F7" s="53"/>
       <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
+      <c r="H7" s="54" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="58"/>
@@ -2039,29 +2041,29 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
-      <c r="B57" s="56" t="s">
+      <c r="B57" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
     </row>
     <row r="58" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="41">
         <v>1</v>
       </c>
-      <c r="B58" s="57" t="s">
+      <c r="B58" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61"/>
     </row>
     <row r="59" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="42"/>
@@ -2077,15 +2079,15 @@
       <c r="A60" s="41">
         <v>2</v>
       </c>
-      <c r="B60" s="57" t="s">
+      <c r="B60" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="61"/>
+      <c r="H60" s="61"/>
     </row>
     <row r="61" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="45"/>
@@ -2101,15 +2103,15 @@
       <c r="A62" s="41">
         <v>3</v>
       </c>
-      <c r="B62" s="57" t="s">
+      <c r="B62" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="57"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="61"/>
     </row>
     <row r="63" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="48"/>
@@ -2283,6 +2285,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="A54:A55"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
@@ -2298,11 +2305,6 @@
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/desafioFinanceiro/DesafioPoupança2reais.xlsx
+++ b/desafioFinanceiro/DesafioPoupança2reais.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>Semana</t>
   </si>
@@ -627,23 +627,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -994,7 +994,7 @@
   <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1014,15 +1014,15 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="56" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="39" t="s">
@@ -1159,10 +1159,16 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="E8" s="53"/>
+      <c r="E8" s="53" t="s">
+        <v>24</v>
+      </c>
       <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
+      <c r="G8" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="58"/>
@@ -2041,29 +2047,29 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
-      <c r="B57" s="60" t="s">
+      <c r="B57" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
     </row>
     <row r="58" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="41">
         <v>1</v>
       </c>
-      <c r="B58" s="61" t="s">
+      <c r="B58" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="61"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="61"/>
-      <c r="H58" s="61"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
     </row>
     <row r="59" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="42"/>
@@ -2079,15 +2085,15 @@
       <c r="A60" s="41">
         <v>2</v>
       </c>
-      <c r="B60" s="61" t="s">
+      <c r="B60" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="61"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="61"/>
-      <c r="H60" s="61"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
     </row>
     <row r="61" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="45"/>
@@ -2103,15 +2109,15 @@
       <c r="A62" s="41">
         <v>3</v>
       </c>
-      <c r="B62" s="61" t="s">
+      <c r="B62" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="61"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="61"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
     </row>
     <row r="63" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="48"/>
@@ -2285,11 +2291,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="A54:A55"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
@@ -2305,6 +2306,11 @@
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/desafioFinanceiro/DesafioPoupança2reais.xlsx
+++ b/desafioFinanceiro/DesafioPoupança2reais.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>Semana</t>
   </si>
@@ -994,7 +994,7 @@
   <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1183,9 +1183,13 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="E9" s="53"/>
+      <c r="E9" s="53" t="s">
+        <v>24</v>
+      </c>
       <c r="F9" s="53"/>
-      <c r="G9" s="54"/>
+      <c r="G9" s="54" t="s">
+        <v>24</v>
+      </c>
       <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">

--- a/desafioFinanceiro/DesafioPoupança2reais.xlsx
+++ b/desafioFinanceiro/DesafioPoupança2reais.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>Semana</t>
   </si>
@@ -627,23 +627,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -994,7 +994,7 @@
   <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1014,15 +1014,15 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="59" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="39" t="s">
@@ -1190,7 +1190,9 @@
       <c r="G9" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="54"/>
+      <c r="H9" s="54" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="58" t="s">
@@ -1207,10 +1209,14 @@
         <f>C10+D9</f>
         <v>56</v>
       </c>
-      <c r="E10" s="53"/>
+      <c r="E10" s="53" t="s">
+        <v>24</v>
+      </c>
       <c r="F10" s="53"/>
       <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
+      <c r="H10" s="54" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="58"/>
@@ -1225,10 +1231,14 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="E11" s="53"/>
+      <c r="E11" s="53" t="s">
+        <v>24</v>
+      </c>
       <c r="F11" s="53"/>
       <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
+      <c r="H11" s="55" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="58"/>
@@ -1243,10 +1253,14 @@
         <f>C12+D11</f>
         <v>90</v>
       </c>
-      <c r="E12" s="53"/>
+      <c r="E12" s="53" t="s">
+        <v>24</v>
+      </c>
       <c r="F12" s="53"/>
       <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
+      <c r="H12" s="55" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
@@ -1261,10 +1275,14 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="E13" s="53"/>
+      <c r="E13" s="53" t="s">
+        <v>24</v>
+      </c>
       <c r="F13" s="53"/>
       <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
+      <c r="H13" s="55" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="58" t="s">
@@ -1281,10 +1299,14 @@
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
-      <c r="E14" s="53"/>
+      <c r="E14" s="53" t="s">
+        <v>24</v>
+      </c>
       <c r="F14" s="53"/>
       <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
+      <c r="H14" s="55" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
@@ -2051,29 +2073,29 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
-      <c r="B57" s="56" t="s">
+      <c r="B57" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
     </row>
     <row r="58" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="41">
         <v>1</v>
       </c>
-      <c r="B58" s="57" t="s">
+      <c r="B58" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61"/>
     </row>
     <row r="59" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="42"/>
@@ -2089,15 +2111,15 @@
       <c r="A60" s="41">
         <v>2</v>
       </c>
-      <c r="B60" s="57" t="s">
+      <c r="B60" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="61"/>
+      <c r="H60" s="61"/>
     </row>
     <row r="61" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="45"/>
@@ -2113,15 +2135,15 @@
       <c r="A62" s="41">
         <v>3</v>
       </c>
-      <c r="B62" s="57" t="s">
+      <c r="B62" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="57"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="61"/>
     </row>
     <row r="63" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="48"/>
@@ -2295,6 +2317,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="A54:A55"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
@@ -2310,11 +2337,6 @@
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
